--- a/data/trans_bre/P16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 0,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 0,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,23; 0,87</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 0,16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 1,71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,57</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>194,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,52%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 1,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 1,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,21; 430,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,09; 524,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,99; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,74; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 3,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 0,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 1,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; -0,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,14; 217,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,59; 52,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,09; 54,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,85; -23,0</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,81%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,81%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,6; -1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,72; 1,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,2; -4,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; -0,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,59; -11,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,19; 18,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,42; -50,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,51; -11,13</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,99%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 0,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,86; -0,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 2,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,37; 0,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,64; 1,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,45; -2,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,56; 11,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,1; 3,48</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,83%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 0,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 0,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 0,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; 18,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,39; 11,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,7; 9,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,11; 6,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,63</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0,0; 1,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,52%</t>
+          <t>-0,54%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,81</t>
+          <t>-1,13; 0,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,74; —</t>
+          <t>-82,0; inf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-59,35%</t>
+          <t>-49,58%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,09; -0,65</t>
+          <t>-3,37; 0,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,85; -23,0</t>
+          <t>-75,81; 41,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-40,81%</t>
+          <t>-41,15%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -0,68</t>
+          <t>-5,57; -0,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,51; -11,13</t>
+          <t>-61,1; -10,58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,49%</t>
+          <t>-14,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,78%</t>
+          <t>-30,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>-32,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-58,48%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 0,24</t>
+          <t>-7,56; 3,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -0,64</t>
+          <t>-9,58; 0,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 2,16</t>
+          <t>-12,49; -1,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 0,7</t>
+          <t>-12,79; -3,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 1,97</t>
+          <t>-37,0; 29,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,45; -2,54</t>
+          <t>-53,57; 8,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 11,34</t>
+          <t>-53,21; -6,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 3,48</t>
+          <t>-85,25; -31,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-7,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,99%</t>
+          <t>-24,72%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,95%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-15,33; 0,08</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 0,84</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 7,22</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 4,85</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-44,48; 0,36</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-43,05; 4,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-24,49; 35,03</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 22,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-8,99%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-9,95%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-8,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-1,29; 0,92</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-1,54; 0,53</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,74; 0,49</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 0,35</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 0,86</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-20,98; 18,58</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-26,39; 11,87</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-26,7; 9,19</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-26,11; 6,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-28,11; 18,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Edad-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,63</t>
+          <t>-0,34; 0,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,1</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,87</t>
+          <t>-0,13; 0,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,16</t>
+          <t>-1,45; 0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,71</t>
+          <t>-0,37; 1,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-99,68; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,39</t>
+          <t>-0,58; 1,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,84</t>
+          <t>-0,46; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,44</t>
+          <t>-0,14; 1,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,88</t>
+          <t>-1,17; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,21; 430,53</t>
+          <t>-57,97; 525,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,09; 524,11</t>
+          <t>-52,57; 697,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,99; —</t>
+          <t>-65,81; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,0; inf</t>
+          <t>-87,65; —</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,14</t>
+          <t>-1,14; 3,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,45</t>
+          <t>-2,82; 0,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,06</t>
+          <t>-2,66; 1,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,7</t>
+          <t>-3,17; 0,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 217,82</t>
+          <t>-36,48; 196,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 52,44</t>
+          <t>-80,32; 53,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,09; 54,17</t>
+          <t>-65,55; 60,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,81; 41,01</t>
+          <t>-74,3; 23,28</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,6; -1,12</t>
+          <t>-8,7; -1,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,07</t>
+          <t>-6,0; 0,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -4,32</t>
+          <t>-11,06; -4,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -0,67</t>
+          <t>-5,66; -0,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,59; -11,65</t>
+          <t>-65,89; -12,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 18,09</t>
+          <t>-57,72; 14,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-86,42; -50,74</t>
+          <t>-86,08; -50,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,1; -10,58</t>
+          <t>-61,05; -11,41</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 3,79</t>
+          <t>-8,15; 3,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 0,85</t>
+          <t>-9,94; 0,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,49; -1,18</t>
+          <t>-12,31; -0,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -3,73</t>
+          <t>-13,05; -3,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 29,98</t>
+          <t>-39,34; 24,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,57; 8,94</t>
+          <t>-55,43; 7,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,21; -6,44</t>
+          <t>-52,11; -2,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-85,25; -31,02</t>
+          <t>-84,49; -31,1</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 0,08</t>
+          <t>-15,63; -0,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 0,84</t>
+          <t>-14,5; 0,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 7,22</t>
+          <t>-6,25; 7,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,85</t>
+          <t>-4,7; 5,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 0,36</t>
+          <t>-45,94; -0,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 4,02</t>
+          <t>-42,24; 1,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 35,03</t>
+          <t>-22,42; 38,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 22,89</t>
+          <t>-17,36; 27,69</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,92</t>
+          <t>-1,16; 1,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,53</t>
+          <t>-1,68; 0,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,49</t>
+          <t>-1,75; 0,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,86</t>
+          <t>-1,58; 0,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 18,58</t>
+          <t>-19,04; 20,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 11,87</t>
+          <t>-28,5; 12,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 9,19</t>
+          <t>-26,44; 9,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 18,66</t>
+          <t>-27,04; 15,99</t>
         </is>
       </c>
     </row>
